--- a/各指数夏普比率比较.xlsx
+++ b/各指数夏普比率比较.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="918" activeTab="3"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="918" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="宽基系列" sheetId="1" r:id="rId1"/>
     <sheet name="科创板系列" sheetId="6" r:id="rId2"/>
     <sheet name="A系列" sheetId="2" r:id="rId3"/>
-    <sheet name="红利系列" sheetId="3" r:id="rId4"/>
-    <sheet name="红利低波系列" sheetId="4" r:id="rId5"/>
-    <sheet name="现金流系列" sheetId="5" r:id="rId6"/>
+    <sheet name="行业系列" sheetId="7" r:id="rId4"/>
+    <sheet name="红利系列" sheetId="3" r:id="rId5"/>
+    <sheet name="红利低波系列" sheetId="4" r:id="rId6"/>
+    <sheet name="现金流系列" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>年份</t>
   </si>
@@ -77,6 +78,42 @@
   </si>
   <si>
     <t>中证A500</t>
+  </si>
+  <si>
+    <t>800能源</t>
+  </si>
+  <si>
+    <t>800材料</t>
+  </si>
+  <si>
+    <t>800工业</t>
+  </si>
+  <si>
+    <t>800可选</t>
+  </si>
+  <si>
+    <t>800消费</t>
+  </si>
+  <si>
+    <t>800医药</t>
+  </si>
+  <si>
+    <t>800金融</t>
+  </si>
+  <si>
+    <t>800地产</t>
+  </si>
+  <si>
+    <t>800信息</t>
+  </si>
+  <si>
+    <t>800通信</t>
+  </si>
+  <si>
+    <t>800公用</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
   <si>
     <t>中证红利</t>
@@ -755,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,7 +808,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -790,9 +827,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1563,7 +1597,7 @@
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f>SUM(B3:B23)/21</f>
         <v>0.596380952380952</v>
       </c>
@@ -1763,7 +1797,7 @@
         <f>SUM(C3:C8)/6</f>
         <v>0.223333333333333</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f>SUM(B3:B8)/6</f>
         <v>0.0315</v>
       </c>
@@ -1785,7 +1819,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2171,7 +2205,7 @@
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f>SUM(B13:B23)/11</f>
         <v>0.367909090909091</v>
       </c>
@@ -2199,9 +2233,972 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="13" width="9.02654867256637" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.034</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.632</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.188</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.864</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.422</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.393</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-0.897</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.536</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.747</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MAX(B3:L3)</f>
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.732</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.243</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7.035</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.501</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6.925</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.614</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.224</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.974</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.085</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M23" si="0">MAX(B4:L4)</f>
+        <v>7.035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.316</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.846</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.653</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.953</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.154</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.938</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.104</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.849</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.947</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.984</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.446</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.451</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.335</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1.283</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1.248</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-0.906</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1.242</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.141</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1.177</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1.057</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.309</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.059</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.542</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.928</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.911</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.191</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.838</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.611</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.026</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.168</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.114</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.052</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.254</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.568</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.701</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.147</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.796</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.122</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.967</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1.044</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1.535</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.697</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1.418</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.144</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.562</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-0.827</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.968</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1.674</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1.469</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.234</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.323</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.047</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.283</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.075</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.212</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.791</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.691</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-0.208</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-0.773</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.097</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.435</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.095</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.079</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.721</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.104</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.382</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.407</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.307</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.772</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.702</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.573</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.673</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.413</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.131</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.096</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.839</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.259</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3.636</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.434</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.326</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.845</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.598</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.968</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-0.335</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.865</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.191</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.789</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.069</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.182</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.344</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.743</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.816</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-0.105</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.608</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.602</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.843</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-0.908</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-0.492</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1.057</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.228</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.078</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.158</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.904</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.012</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.891</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.384</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.528</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.164</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.537</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-1.215</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-1.548</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.638</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.541</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-0.892</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1.085</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.047</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.975</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1.253</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1.318</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.975</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.397</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.915</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.716</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.262</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2.589</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.232</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.378</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.951</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.016</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.654</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.027</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.664</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.747</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.012</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.707</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.592</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-0.314</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.364</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.589</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.654</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.517</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-0.391</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.552</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.73</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.718</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-0.052</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.028</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1.264</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.273</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.05</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1.058</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-0.921</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-0.718</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-0.92</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-0.881</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-0.496</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.397</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-1.075</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-0.765</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.102</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1.587</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1.315</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.904</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.515</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1.579</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-0.032</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.535</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-0.092</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.369</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-0.032</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.322</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.724</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.367</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.594</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1.452</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.177</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.469</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.737</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.638</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-0.227</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.779</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.644</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.075</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.338</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.315</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.191</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.488</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.779</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2226,13 +3223,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2572,7 +3569,7 @@
         <f>SUM(C12:C23)/12</f>
         <v>0.339916666666667</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f>SUM(D12:D23)/12</f>
         <v>0.478833333333333</v>
       </c>
@@ -2589,7 +3586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H23"/>
@@ -2621,22 +3618,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -3131,7 +4128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G14"/>
@@ -3162,19 +4159,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
